--- a/tarefas_exemplo.xlsx
+++ b/tarefas_exemplo.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neantro/Dropbox/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B6F930-671E-C049-BC31-55CE415CE0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9911F95-7C69-D64B-97A8-E8043D83EC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1180" windowWidth="27640" windowHeight="16640" xr2:uid="{9FEC235A-8F15-794E-B767-166C3D3D4637}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="tarefas" localSheetId="0">'Sheet1 (2)'!$A$1:$D$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,22 +38,67 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{A179D546-6FAA-F04C-BAF9-48AC53CD2D01}" name="tarefas" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/neantro/Dropbox/Mac/Downloads/tarefas.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Tarefa,Responsável,Status,Horas Gastas</t>
-  </si>
-  <si>
-    <t>Relatório mensal,João,Concluído,8</t>
-  </si>
-  <si>
-    <t>Reunião com RH,Ana,Pendente,2</t>
-  </si>
-  <si>
-    <t>Ajuste de sistema,Bruno,Em curso,5</t>
-  </si>
-  <si>
-    <t>Planejamento de metas,Carlos,Concluído,6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Planejamento de metas</t>
+  </si>
+  <si>
+    <t>Em curso</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Ajuste de sistema</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Reunião com RH</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Relatório mensal</t>
+  </si>
+  <si>
+    <t>Horas Gastas</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
   </si>
 </sst>
 </file>
@@ -103,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tarefas" connectionId="1" xr16:uid="{0DF6FE53-1DC5-9A43-9086-093452C883A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,38 +473,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B389BC-7026-874E-9163-4DA15DA84B2A}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E718A3-B86F-124A-BCCA-8430E3F3B02C}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
